--- a/import-stockproducts-excel/sample-Stock Catalog (2).xlsx
+++ b/import-stockproducts-excel/sample-Stock Catalog (2).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>vegtables</t>
+  </si>
+  <si>
+    <t>l</t>
   </si>
 </sst>
 </file>
@@ -386,7 +389,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +445,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>50</v>
